--- a/CUT/UT-IT-PLAN Report/UT_IT_TestPlan_Reports_V0.2.xlsx
+++ b/CUT/UT-IT-PLAN Report/UT_IT_TestPlan_Reports_V0.2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="149">
   <si>
     <t>Capgemini Technology Services India Ltd</t>
   </si>
@@ -100,7 +100,7 @@
     <t>Platform / Browser / Environment</t>
   </si>
   <si>
-    <t>Vim Editor,Cygwin</t>
+    <t>Vi Editor,Cygwin</t>
   </si>
   <si>
     <t>Type of Testing</t>
@@ -166,16 +166,19 @@
     <t>IT_TEST_CASE-02</t>
   </si>
   <si>
-    <t>If there is an error in creating a thread for sending messages</t>
-  </si>
-  <si>
-    <t>Error: pthread and exits from the program</t>
+    <t xml:space="preserve">When number of arguments is less than 2 </t>
+  </si>
+  <si>
+    <t>Usage error : ./server &lt;port&gt;</t>
   </si>
   <si>
     <t>IT_TEST_CASE-03</t>
   </si>
   <si>
-    <t>If there is an error in creating a thread for receiving messages</t>
+    <t xml:space="preserve">When number of arguments is equal to 2 </t>
+  </si>
+  <si>
+    <t>Program should run further</t>
   </si>
   <si>
     <t>Server Module</t>
@@ -184,10 +187,10 @@
     <t>IT_TEST_CASE-04</t>
   </si>
   <si>
-    <t>If there is no file found for storing chat history</t>
-  </si>
-  <si>
-    <t>Prints "Unable to store chat history", throws segmentation fault</t>
+    <t>Writing failed because there are no processes which could read from the pipe.</t>
+  </si>
+  <si>
+    <t>Prints "Writer to descriptor failed: Broken pipe",exits from the program</t>
   </si>
   <si>
     <t>NA</t>
@@ -208,7 +211,7 @@
     <t xml:space="preserve">If number of clients exceeded MAX_CLIENTS </t>
   </si>
   <si>
-    <t>Prints "ERROR: Socket listening failed" , exits from the program</t>
+    <t>Prints "ERROR: Maximum clients reached" , exits from the program</t>
   </si>
   <si>
     <t>IT_TEST_CASE-07</t>
@@ -217,7 +220,7 @@
     <t>Taking note of joining and leaving users</t>
   </si>
   <si>
-    <t>prints "xyz has joined" , "abc has left"</t>
+    <t>prints "Active users are :xyz" , "abc has left"</t>
   </si>
   <si>
     <t>Req ICS_03</t>
@@ -277,6 +280,21 @@
     <t>Server should be run first</t>
   </si>
   <si>
+    <t>User enters username of length within 2 to 30 characters</t>
+  </si>
+  <si>
+    <t>username="user12"</t>
+  </si>
+  <si>
+    <t>Password must be less than 30 and more than 2 characters.</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>LOGIN_002</t>
+  </si>
+  <si>
     <t>User enters the username of length greater than 30 characters</t>
   </si>
   <si>
@@ -286,19 +304,16 @@
     <t>Name must be less than 30 and more than 2 characters</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>LOGIN_002</t>
+    <t>LOGIN_003</t>
   </si>
   <si>
     <t>User enters the username of length less than 2 characters</t>
   </si>
   <si>
-    <t>username="A"</t>
-  </si>
-  <si>
-    <t>LOGIN_003</t>
+    <t>username="u"</t>
+  </si>
+  <si>
+    <t>LOGIN_004</t>
   </si>
   <si>
     <t>Enter password</t>
@@ -307,25 +322,34 @@
     <t>Valid username should be entered</t>
   </si>
   <si>
+    <t>User enters password of length within 2 to 30 characters</t>
+  </si>
+  <si>
+    <t>password="pass123"</t>
+  </si>
+  <si>
+    <t>Password must be less than 30 and more than 2 characters</t>
+  </si>
+  <si>
+    <t>LOGIN_005</t>
+  </si>
+  <si>
+    <t>User enters password greater than 30 characters</t>
+  </si>
+  <si>
+    <t>password="ppppppaaaaassssss11444kkjjj"</t>
+  </si>
+  <si>
+    <t>LOGIN_006</t>
+  </si>
+  <si>
     <t>User enters password less than 2 characters</t>
   </si>
   <si>
-    <t>password="s"</t>
-  </si>
-  <si>
-    <t>Password must be less than 30 and more than 2 characters.</t>
-  </si>
-  <si>
-    <t>LOGIN_004</t>
-  </si>
-  <si>
-    <t>User enters password greater than 30 characters</t>
-  </si>
-  <si>
-    <t>password="hsdgfhsdgfshjiowqrghcbvnskerbnchd"</t>
-  </si>
-  <si>
-    <t>LOGIN_005</t>
+    <t>password="p"</t>
+  </si>
+  <si>
+    <t>LOGIN_007</t>
   </si>
   <si>
     <t>Validate users</t>
@@ -337,13 +361,13 @@
     <t>User enters valid credentials</t>
   </si>
   <si>
-    <t>Username="user1" , Password="u123" //valid</t>
+    <t>Is new = "n" , Is old ="o" , Invalid input = "p"/"z",alongwith username &amp; password</t>
   </si>
   <si>
     <t>User will be added to the list</t>
   </si>
   <si>
-    <t>LOGIN_006</t>
+    <t>LOGIN_008</t>
   </si>
   <si>
     <t>New user</t>
@@ -352,9 +376,21 @@
     <t>Check for new or old user</t>
   </si>
   <si>
+    <t>Is new = "n" , Invalid input = "p"/"z" alongwith username &amp; password</t>
+  </si>
+  <si>
     <t>User will be added to logfile</t>
   </si>
   <si>
+    <t>LOGIN_009</t>
+  </si>
+  <si>
+    <t>Is old = "o" , Invalid input = "p"/"z" alongwith username &amp; password</t>
+  </si>
+  <si>
+    <t>User will not be added to logfile</t>
+  </si>
+  <si>
     <t>ADD_001</t>
   </si>
   <si>
@@ -367,7 +403,7 @@
     <t>User equips a place in structure array</t>
   </si>
   <si>
-    <t>Username="user1" , Password="u123"</t>
+    <t>Username="user1" , Username="user30"</t>
   </si>
   <si>
     <t>User will be added to the structure array</t>
@@ -388,9 +424,6 @@
     <t>User gets removed from structure array</t>
   </si>
   <si>
-    <t>ctrl + c or "exit"</t>
-  </si>
-  <si>
     <t>User will be removed from the structure array</t>
   </si>
   <si>
@@ -406,65 +439,35 @@
     <t>User should enter correct password</t>
   </si>
   <si>
+    <t>Registered user enters correct password</t>
+  </si>
+  <si>
+    <t>Username="user12" //valid, Password="pass11" //valid</t>
+  </si>
+  <si>
+    <t>User is able to connect</t>
+  </si>
+  <si>
+    <t>FAIL_002</t>
+  </si>
+  <si>
+    <t>User should enter incorrect password</t>
+  </si>
+  <si>
     <t>Registered user enters wrong password</t>
   </si>
   <si>
-    <t>Username="user1" //valid, Password="u123" //invalid</t>
-  </si>
-  <si>
-    <t>Error message shows : Wrong credentials entered</t>
-  </si>
-  <si>
-    <t>HIS_001</t>
-  </si>
-  <si>
-    <t>Search chat history</t>
-  </si>
-  <si>
-    <t>User should enter correct keyword</t>
-  </si>
-  <si>
-    <t>User enters keyword which is present in chat history</t>
-  </si>
-  <si>
-    <t>Keyword="hello"</t>
-  </si>
-  <si>
-    <t>Line containing the keyword alongwith user is displayed</t>
-  </si>
-  <si>
-    <t>HIS_002</t>
-  </si>
-  <si>
-    <t>User enters keyword which is not present in chat history</t>
-  </si>
-  <si>
-    <t>Error message shows : keyword not found entered</t>
-  </si>
-  <si>
-    <t>EXIT_001</t>
-  </si>
-  <si>
-    <t>Exit</t>
-  </si>
-  <si>
-    <t>User should type exit or ctrl c while messaging</t>
-  </si>
-  <si>
-    <t>User typing exit</t>
-  </si>
-  <si>
-    <t>&gt;exit</t>
-  </si>
-  <si>
-    <t>Bye, exiting the program, clients data will be deleted</t>
+    <t>Username="user22" //valid, Password="pass11" //invalid</t>
+  </si>
+  <si>
+    <t>Login failed : Password incorrect</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -562,6 +565,11 @@
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.0"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
     </font>
     <font>
       <b/>
@@ -743,7 +751,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="74">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -899,6 +907,9 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="15" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="9" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -910,13 +921,13 @@
     <xf borderId="10" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="9" fillId="4" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="9" fillId="4" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="11" fillId="4" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="11" fillId="4" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="8" fillId="4" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="8" fillId="4" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="9" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -926,22 +937,15 @@
     <xf borderId="11" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="6" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="12" fillId="6" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="10" fillId="6" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
     <xf borderId="9" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="12" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="10" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="12" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
@@ -6027,16 +6031,16 @@
     <mergeCell ref="I14:J14"/>
     <mergeCell ref="K14:L14"/>
     <mergeCell ref="G17:H17"/>
+    <mergeCell ref="I17:J17"/>
     <mergeCell ref="K17:L17"/>
-    <mergeCell ref="I17:J17"/>
     <mergeCell ref="I18:J18"/>
     <mergeCell ref="G14:H14"/>
     <mergeCell ref="G15:H15"/>
+    <mergeCell ref="I15:J15"/>
     <mergeCell ref="K15:L15"/>
     <mergeCell ref="G16:H16"/>
+    <mergeCell ref="I16:J16"/>
     <mergeCell ref="K16:L16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I15:J15"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -6232,7 +6236,7 @@
       <c r="C7" s="54" t="s">
         <v>49</v>
       </c>
-      <c r="D7" s="55" t="s">
+      <c r="D7" s="57" t="s">
         <v>50</v>
       </c>
       <c r="E7" s="55" t="s">
@@ -6246,7 +6250,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="B8" s="57"/>
+      <c r="B8" s="58"/>
       <c r="C8" s="54" t="s">
         <v>52</v>
       </c>
@@ -6254,7 +6258,7 @@
         <v>53</v>
       </c>
       <c r="E8" s="55" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="F8" s="55" t="s">
         <v>47</v>
@@ -6265,19 +6269,19 @@
     </row>
     <row r="9">
       <c r="B9" s="53" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C9" s="54" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D9" s="55" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E9" s="55" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F9" s="55" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G9" s="55" t="s">
         <v>48</v>
@@ -6286,16 +6290,16 @@
     <row r="10">
       <c r="B10" s="56"/>
       <c r="C10" s="54" t="s">
+        <v>60</v>
+      </c>
+      <c r="D10" s="55" t="s">
+        <v>61</v>
+      </c>
+      <c r="E10" s="55" t="s">
+        <v>62</v>
+      </c>
+      <c r="F10" s="55" t="s">
         <v>59</v>
-      </c>
-      <c r="D10" s="55" t="s">
-        <v>60</v>
-      </c>
-      <c r="E10" s="55" t="s">
-        <v>61</v>
-      </c>
-      <c r="F10" s="55" t="s">
-        <v>58</v>
       </c>
       <c r="G10" s="55" t="s">
         <v>48</v>
@@ -6304,16 +6308,16 @@
     <row r="11">
       <c r="B11" s="56"/>
       <c r="C11" s="54" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D11" s="55" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E11" s="55" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F11" s="55" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G11" s="55" t="s">
         <v>48</v>
@@ -6322,34 +6326,34 @@
     <row r="12">
       <c r="B12" s="56"/>
       <c r="C12" s="54" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D12" s="55" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E12" s="55" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F12" s="55" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G12" s="55" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="13">
-      <c r="B13" s="57"/>
+      <c r="B13" s="58"/>
       <c r="C13" s="54" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D13" s="55" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E13" s="55" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F13" s="55" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G13" s="55" t="s">
         <v>48</v>
@@ -6357,9 +6361,9 @@
     </row>
   </sheetData>
   <mergeCells count="3">
+    <mergeCell ref="A1:D1"/>
     <mergeCell ref="B6:B8"/>
     <mergeCell ref="B9:B13"/>
-    <mergeCell ref="A1:D1"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -6379,7 +6383,7 @@
     <col customWidth="1" min="2" max="2" width="29.25"/>
     <col customWidth="1" min="3" max="3" width="41.5"/>
     <col customWidth="1" min="4" max="4" width="50.5"/>
-    <col customWidth="1" min="5" max="5" width="42.5"/>
+    <col customWidth="1" min="5" max="5" width="62.13"/>
     <col customWidth="1" min="6" max="6" width="48.25"/>
     <col customWidth="1" min="7" max="7" width="53.88"/>
     <col customWidth="1" min="10" max="10" width="19.25"/>
@@ -6391,11 +6395,11 @@
       <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="58"/>
+      <c r="B1" s="59"/>
     </row>
     <row r="2">
-      <c r="A2" s="59" t="s">
-        <v>73</v>
+      <c r="A2" s="60" t="s">
+        <v>74</v>
       </c>
       <c r="C2" s="47"/>
       <c r="D2" s="47"/>
@@ -6409,8 +6413,8 @@
       <c r="L2" s="47"/>
     </row>
     <row r="3">
-      <c r="A3" s="60" t="s">
-        <v>74</v>
+      <c r="A3" s="61" t="s">
+        <v>75</v>
       </c>
       <c r="D3" s="47"/>
       <c r="E3" s="47"/>
@@ -6423,9 +6427,9 @@
       <c r="L3" s="47"/>
     </row>
     <row r="4">
-      <c r="A4" s="61"/>
-      <c r="B4" s="61"/>
-      <c r="C4" s="61"/>
+      <c r="A4" s="62"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="62"/>
       <c r="D4" s="47"/>
       <c r="E4" s="47"/>
       <c r="F4" s="47"/>
@@ -6437,467 +6441,513 @@
       <c r="L4" s="47"/>
     </row>
     <row r="5">
-      <c r="A5" s="62" t="s">
+      <c r="A5" s="63" t="s">
         <v>38</v>
       </c>
-      <c r="B5" s="63" t="s">
-        <v>75</v>
-      </c>
-      <c r="C5" s="63" t="s">
+      <c r="B5" s="64" t="s">
         <v>76</v>
       </c>
-      <c r="D5" s="64" t="s">
+      <c r="C5" s="64" t="s">
         <v>77</v>
       </c>
-      <c r="E5" s="64" t="s">
+      <c r="D5" s="65" t="s">
         <v>78</v>
       </c>
-      <c r="F5" s="64" t="s">
+      <c r="E5" s="65" t="s">
+        <v>79</v>
+      </c>
+      <c r="F5" s="65" t="s">
         <v>40</v>
       </c>
-      <c r="G5" s="64" t="s">
-        <v>79</v>
-      </c>
-      <c r="H5" s="64" t="s">
+      <c r="G5" s="65" t="s">
         <v>80</v>
       </c>
-      <c r="I5" s="64" t="s">
+      <c r="H5" s="65" t="s">
         <v>81</v>
       </c>
-      <c r="J5" s="64" t="s">
+      <c r="I5" s="65" t="s">
         <v>82</v>
       </c>
-      <c r="K5" s="64" t="s">
+      <c r="J5" s="65" t="s">
         <v>83</v>
       </c>
-      <c r="L5" s="64" t="s">
-        <v>80</v>
+      <c r="K5" s="65" t="s">
+        <v>84</v>
+      </c>
+      <c r="L5" s="65" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="65" t="s">
-        <v>84</v>
+      <c r="A6" s="66" t="s">
+        <v>85</v>
       </c>
       <c r="B6" s="43" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C6" s="43" t="s">
-        <v>86</v>
-      </c>
-      <c r="D6" s="43" t="s">
         <v>87</v>
       </c>
-      <c r="E6" s="43" t="s">
+      <c r="D6" s="39" t="s">
         <v>88</v>
       </c>
+      <c r="E6" s="66" t="s">
+        <v>89</v>
+      </c>
       <c r="F6" s="43" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G6" s="43" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H6" s="43" t="s">
         <v>48</v>
       </c>
       <c r="I6" s="43" t="s">
+        <v>91</v>
+      </c>
+      <c r="J6" s="67"/>
+      <c r="K6" s="43" t="s">
         <v>90</v>
       </c>
-      <c r="J6" s="66"/>
-      <c r="K6" s="43" t="s">
-        <v>89</v>
-      </c>
-      <c r="L6" s="67" t="s">
+      <c r="L6" s="68" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="65" t="s">
-        <v>91</v>
+      <c r="A7" s="66" t="s">
+        <v>92</v>
       </c>
       <c r="B7" s="43" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C7" s="43" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D7" s="43" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E7" s="43" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F7" s="43" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="G7" s="43" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="H7" s="43" t="s">
         <v>48</v>
       </c>
       <c r="I7" s="43" t="s">
-        <v>90</v>
-      </c>
-      <c r="J7" s="66"/>
+        <v>91</v>
+      </c>
+      <c r="J7" s="67"/>
       <c r="K7" s="43" t="s">
-        <v>89</v>
-      </c>
-      <c r="L7" s="67" t="s">
+        <v>95</v>
+      </c>
+      <c r="L7" s="68" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="65" t="s">
-        <v>94</v>
+      <c r="A8" s="66" t="s">
+        <v>96</v>
       </c>
       <c r="B8" s="43" t="s">
+        <v>86</v>
+      </c>
+      <c r="C8" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="D8" s="43" t="s">
+        <v>97</v>
+      </c>
+      <c r="E8" s="43" t="s">
+        <v>98</v>
+      </c>
+      <c r="F8" s="43" t="s">
         <v>95</v>
       </c>
-      <c r="C8" s="43" t="s">
-        <v>96</v>
-      </c>
-      <c r="D8" s="39" t="s">
-        <v>97</v>
-      </c>
-      <c r="E8" s="65" t="s">
-        <v>98</v>
-      </c>
-      <c r="F8" s="43" t="s">
-        <v>99</v>
-      </c>
       <c r="G8" s="43" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="H8" s="43" t="s">
         <v>48</v>
       </c>
       <c r="I8" s="43" t="s">
-        <v>90</v>
-      </c>
-      <c r="J8" s="66"/>
+        <v>91</v>
+      </c>
+      <c r="J8" s="67"/>
       <c r="K8" s="43" t="s">
+        <v>95</v>
+      </c>
+      <c r="L8" s="68" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="66" t="s">
         <v>99</v>
       </c>
-      <c r="L8" s="67" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="65" t="s">
+      <c r="B9" s="43" t="s">
         <v>100</v>
       </c>
-      <c r="B9" s="43" t="s">
-        <v>95</v>
-      </c>
       <c r="C9" s="43" t="s">
-        <v>96</v>
-      </c>
-      <c r="D9" s="39" t="s">
         <v>101</v>
       </c>
+      <c r="D9" s="69" t="s">
+        <v>102</v>
+      </c>
       <c r="E9" s="43" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F9" s="43" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="G9" s="43" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="H9" s="43" t="s">
         <v>48</v>
       </c>
       <c r="I9" s="43" t="s">
-        <v>90</v>
-      </c>
-      <c r="J9" s="66"/>
+        <v>91</v>
+      </c>
+      <c r="J9" s="67"/>
       <c r="K9" s="43" t="s">
-        <v>99</v>
-      </c>
-      <c r="L9" s="67" t="s">
+        <v>104</v>
+      </c>
+      <c r="L9" s="68" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="65" t="s">
-        <v>103</v>
+      <c r="A10" s="66" t="s">
+        <v>105</v>
       </c>
       <c r="B10" s="43" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C10" s="43" t="s">
-        <v>105</v>
-      </c>
-      <c r="D10" s="43" t="s">
+        <v>101</v>
+      </c>
+      <c r="D10" s="39" t="s">
         <v>106</v>
       </c>
       <c r="E10" s="43" t="s">
         <v>107</v>
       </c>
       <c r="F10" s="43" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="G10" s="43" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="H10" s="43" t="s">
         <v>48</v>
       </c>
       <c r="I10" s="43" t="s">
+        <v>91</v>
+      </c>
+      <c r="J10" s="67"/>
+      <c r="K10" s="43" t="s">
         <v>90</v>
       </c>
-      <c r="J10" s="66"/>
-      <c r="K10" s="43" t="s">
+      <c r="L10" s="68" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="66" t="s">
         <v>108</v>
       </c>
-      <c r="L10" s="67" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="65" t="s">
+      <c r="B11" s="43" t="s">
+        <v>100</v>
+      </c>
+      <c r="C11" s="43" t="s">
+        <v>101</v>
+      </c>
+      <c r="D11" s="39" t="s">
         <v>109</v>
       </c>
-      <c r="B11" s="43" t="s">
+      <c r="E11" s="43" t="s">
         <v>110</v>
       </c>
-      <c r="C11" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="D11" s="43" t="s">
-        <v>106</v>
-      </c>
-      <c r="E11" s="43" t="s">
-        <v>107</v>
-      </c>
       <c r="F11" s="43" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="G11" s="43" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="H11" s="43" t="s">
         <v>48</v>
       </c>
       <c r="I11" s="43" t="s">
+        <v>91</v>
+      </c>
+      <c r="J11" s="67"/>
+      <c r="K11" s="43" t="s">
         <v>90</v>
       </c>
-      <c r="J11" s="66"/>
-      <c r="K11" s="43" t="s">
+      <c r="L11" s="68" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="66" t="s">
+        <v>111</v>
+      </c>
+      <c r="B12" s="43" t="s">
         <v>112</v>
       </c>
-      <c r="L11" s="67" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="65" t="s">
+      <c r="C12" s="43" t="s">
         <v>113</v>
       </c>
-      <c r="B12" s="43" t="s">
+      <c r="D12" s="43" t="s">
         <v>114</v>
       </c>
-      <c r="C12" s="43" t="s">
+      <c r="E12" s="43" t="s">
         <v>115</v>
       </c>
-      <c r="D12" s="43" t="s">
+      <c r="F12" s="43" t="s">
         <v>116</v>
       </c>
-      <c r="E12" s="68" t="s">
-        <v>117</v>
-      </c>
-      <c r="F12" s="43" t="s">
-        <v>118</v>
-      </c>
       <c r="G12" s="43" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="H12" s="43" t="s">
         <v>48</v>
       </c>
       <c r="I12" s="43" t="s">
-        <v>90</v>
-      </c>
-      <c r="J12" s="66"/>
-      <c r="K12" s="43"/>
-      <c r="L12" s="67"/>
+        <v>91</v>
+      </c>
+      <c r="J12" s="67"/>
+      <c r="K12" s="43" t="s">
+        <v>116</v>
+      </c>
+      <c r="L12" s="68" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="13">
-      <c r="A13" s="65" t="s">
+      <c r="A13" s="66" t="s">
+        <v>117</v>
+      </c>
+      <c r="B13" s="43" t="s">
+        <v>118</v>
+      </c>
+      <c r="C13" s="43" t="s">
+        <v>119</v>
+      </c>
+      <c r="D13" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="E13" s="43" t="s">
         <v>120</v>
       </c>
-      <c r="B13" s="43" t="s">
+      <c r="F13" s="43" t="s">
         <v>121</v>
       </c>
-      <c r="C13" s="43" t="s">
+      <c r="G13" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="H13" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="I13" s="43" t="s">
+        <v>91</v>
+      </c>
+      <c r="J13" s="67"/>
+      <c r="K13" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="L13" s="68" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="66" t="s">
         <v>122</v>
       </c>
-      <c r="D13" s="43" t="s">
+      <c r="B14" s="43" t="s">
+        <v>118</v>
+      </c>
+      <c r="C14" s="43" t="s">
+        <v>119</v>
+      </c>
+      <c r="D14" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="E14" s="43" t="s">
         <v>123</v>
       </c>
-      <c r="E13" s="43" t="s">
+      <c r="F14" s="43" t="s">
         <v>124</v>
       </c>
-      <c r="F13" s="43" t="s">
-        <v>125</v>
-      </c>
-      <c r="G13" s="43" t="s">
-        <v>126</v>
-      </c>
-      <c r="H13" s="43"/>
-      <c r="I13" s="43"/>
-      <c r="J13" s="66"/>
-      <c r="K13" s="43"/>
-      <c r="L13" s="67"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="69" t="s">
-        <v>127</v>
-      </c>
-      <c r="B14" s="43" t="s">
-        <v>128</v>
-      </c>
-      <c r="C14" s="43" t="s">
-        <v>129</v>
-      </c>
-      <c r="D14" s="43" t="s">
-        <v>130</v>
-      </c>
-      <c r="E14" s="43" t="s">
-        <v>131</v>
-      </c>
-      <c r="F14" s="43" t="s">
-        <v>132</v>
-      </c>
       <c r="G14" s="43" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="H14" s="43" t="s">
         <v>48</v>
       </c>
       <c r="I14" s="43" t="s">
-        <v>90</v>
-      </c>
-      <c r="J14" s="66"/>
-      <c r="K14" s="43"/>
-      <c r="L14" s="67"/>
+        <v>91</v>
+      </c>
+      <c r="J14" s="67"/>
+      <c r="K14" s="43" t="s">
+        <v>124</v>
+      </c>
+      <c r="L14" s="68" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="15">
-      <c r="A15" s="69" t="s">
-        <v>133</v>
+      <c r="A15" s="66" t="s">
+        <v>125</v>
       </c>
       <c r="B15" s="43" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="C15" s="43" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="D15" s="43" t="s">
-        <v>136</v>
-      </c>
-      <c r="E15" s="43" t="s">
-        <v>137</v>
+        <v>128</v>
+      </c>
+      <c r="E15" s="70" t="s">
+        <v>129</v>
       </c>
       <c r="F15" s="43" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="G15" s="43" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="H15" s="43" t="s">
         <v>48</v>
       </c>
       <c r="I15" s="43" t="s">
-        <v>90</v>
-      </c>
-      <c r="J15" s="66"/>
-      <c r="K15" s="43"/>
-      <c r="L15" s="67"/>
+        <v>91</v>
+      </c>
+      <c r="J15" s="67"/>
+      <c r="K15" s="43" t="s">
+        <v>131</v>
+      </c>
+      <c r="L15" s="68" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="16">
-      <c r="A16" s="69" t="s">
-        <v>139</v>
+      <c r="A16" s="66" t="s">
+        <v>132</v>
       </c>
       <c r="B16" s="43" t="s">
+        <v>133</v>
+      </c>
+      <c r="C16" s="43" t="s">
         <v>134</v>
       </c>
-      <c r="C16" s="43" t="s">
+      <c r="D16" s="43" t="s">
         <v>135</v>
       </c>
-      <c r="D16" s="43" t="s">
-        <v>140</v>
-      </c>
-      <c r="E16" s="43" t="s">
+      <c r="E16" s="70" t="s">
+        <v>129</v>
+      </c>
+      <c r="F16" s="43" t="s">
+        <v>136</v>
+      </c>
+      <c r="G16" s="43" t="s">
         <v>137</v>
-      </c>
-      <c r="F16" s="43" t="s">
-        <v>141</v>
-      </c>
-      <c r="G16" s="43" t="s">
-        <v>141</v>
       </c>
       <c r="H16" s="43" t="s">
         <v>48</v>
       </c>
       <c r="I16" s="43" t="s">
-        <v>90</v>
-      </c>
-      <c r="J16" s="66"/>
-      <c r="K16" s="43"/>
-      <c r="L16" s="67"/>
+        <v>91</v>
+      </c>
+      <c r="J16" s="67"/>
+      <c r="K16" s="43" t="s">
+        <v>137</v>
+      </c>
+      <c r="L16" s="68" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="17">
-      <c r="A17" s="70" t="s">
+      <c r="A17" s="71" t="s">
+        <v>138</v>
+      </c>
+      <c r="B17" s="43" t="s">
+        <v>139</v>
+      </c>
+      <c r="C17" s="43" t="s">
+        <v>140</v>
+      </c>
+      <c r="D17" s="43" t="s">
+        <v>141</v>
+      </c>
+      <c r="E17" s="43" t="s">
         <v>142</v>
       </c>
-      <c r="B17" s="71" t="s">
+      <c r="F17" s="43" t="s">
         <v>143</v>
       </c>
-      <c r="C17" s="72" t="s">
+      <c r="G17" s="43" t="s">
+        <v>143</v>
+      </c>
+      <c r="H17" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="I17" s="43" t="s">
+        <v>91</v>
+      </c>
+      <c r="J17" s="67"/>
+      <c r="K17" s="43" t="s">
+        <v>143</v>
+      </c>
+      <c r="L17" s="68" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="71" t="s">
         <v>144</v>
       </c>
-      <c r="D17" s="71" t="s">
+      <c r="B18" s="43" t="s">
+        <v>139</v>
+      </c>
+      <c r="C18" s="43" t="s">
         <v>145</v>
       </c>
-      <c r="E17" s="71" t="s">
+      <c r="D18" s="43" t="s">
         <v>146</v>
       </c>
-      <c r="F17" s="71" t="s">
+      <c r="E18" s="43" t="s">
         <v>147</v>
       </c>
-      <c r="G17" s="71" t="s">
-        <v>147</v>
-      </c>
-      <c r="H17" s="71" t="s">
+      <c r="F18" s="43" t="s">
+        <v>148</v>
+      </c>
+      <c r="G18" s="43" t="s">
+        <v>148</v>
+      </c>
+      <c r="H18" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="I17" s="71" t="s">
-        <v>90</v>
-      </c>
-      <c r="J17" s="73"/>
-      <c r="K17" s="71" t="s">
-        <v>147</v>
-      </c>
-      <c r="L17" s="54" t="s">
+      <c r="I18" s="43" t="s">
+        <v>91</v>
+      </c>
+      <c r="J18" s="67"/>
+      <c r="K18" s="43" t="s">
+        <v>148</v>
+      </c>
+      <c r="L18" s="68" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="74"/>
-      <c r="B18" s="47"/>
-      <c r="C18" s="47"/>
-      <c r="D18" s="47"/>
-      <c r="E18" s="47"/>
-      <c r="F18" s="47"/>
-      <c r="G18" s="47"/>
-      <c r="H18" s="47"/>
-      <c r="I18" s="47"/>
-      <c r="J18" s="47"/>
-      <c r="K18" s="47"/>
-      <c r="L18" s="75"/>
-    </row>
     <row r="19">
-      <c r="A19" s="74"/>
+      <c r="A19" s="72"/>
       <c r="B19" s="47"/>
       <c r="C19" s="47"/>
       <c r="D19" s="47"/>
@@ -6908,10 +6958,10 @@
       <c r="I19" s="47"/>
       <c r="J19" s="47"/>
       <c r="K19" s="47"/>
-      <c r="L19" s="75"/>
+      <c r="L19" s="73"/>
     </row>
     <row r="20">
-      <c r="A20" s="47"/>
+      <c r="A20" s="72"/>
       <c r="B20" s="47"/>
       <c r="C20" s="47"/>
       <c r="D20" s="47"/>
@@ -6922,7 +6972,21 @@
       <c r="I20" s="47"/>
       <c r="J20" s="47"/>
       <c r="K20" s="47"/>
-      <c r="L20" s="47"/>
+      <c r="L20" s="73"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="47"/>
+      <c r="B21" s="47"/>
+      <c r="C21" s="47"/>
+      <c r="D21" s="47"/>
+      <c r="E21" s="47"/>
+      <c r="F21" s="47"/>
+      <c r="G21" s="47"/>
+      <c r="H21" s="47"/>
+      <c r="I21" s="47"/>
+      <c r="J21" s="47"/>
+      <c r="K21" s="47"/>
+      <c r="L21" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="2">
